--- a/TestFiles/sample23/words/word_3.xlsx
+++ b/TestFiles/sample23/words/word_3.xlsx
@@ -385,10 +385,10 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2">
-        <v>0.4739442499999997</v>
+        <v>0.4739442500000006</v>
       </c>
       <c r="B2">
-        <v>0.5899613500000003</v>
+        <v>0.5899613500000012</v>
       </c>
       <c r="C2" t="s">
         <v>3</v>
@@ -396,10 +396,10 @@
     </row>
     <row r="3" spans="1:3">
       <c r="A3">
-        <v>0.7025654500000007</v>
+        <v>0.7025654500000016</v>
       </c>
       <c r="B3">
-        <v>0.8021211500000005</v>
+        <v>0.8021211500000014</v>
       </c>
       <c r="C3" t="s">
         <v>4</v>
@@ -407,10 +407,10 @@
     </row>
     <row r="4" spans="1:3">
       <c r="A4">
-        <v>0.92621865</v>
+        <v>0.9262186500000009</v>
       </c>
       <c r="B4">
-        <v>1.02215325</v>
+        <v>1.022153250000001</v>
       </c>
       <c r="C4" t="s">
         <v>5</v>
@@ -418,10 +418,10 @@
     </row>
     <row r="5" spans="1:3">
       <c r="A5">
-        <v>1.15789965</v>
+        <v>1.157899650000001</v>
       </c>
       <c r="B5">
-        <v>1.25417565</v>
+        <v>1.254175650000001</v>
       </c>
       <c r="C5" t="s">
         <v>6</v>
